--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl12-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H2">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J2">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>2300.378011969797</v>
+        <v>605.2136704261655</v>
       </c>
       <c r="R2">
-        <v>20703.40210772818</v>
+        <v>5446.92303383549</v>
       </c>
       <c r="S2">
-        <v>0.08897106403242809</v>
+        <v>0.02688269411013017</v>
       </c>
       <c r="T2">
-        <v>0.0889710640324281</v>
+        <v>0.02688269411013017</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H3">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J3">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>3905.252088573384</v>
+        <v>5765.939283738289</v>
       </c>
       <c r="R3">
-        <v>35147.26879716046</v>
+        <v>51893.4535536446</v>
       </c>
       <c r="S3">
-        <v>0.151042320795665</v>
+        <v>0.2561144759224826</v>
       </c>
       <c r="T3">
-        <v>0.151042320795665</v>
+        <v>0.2561144759224825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.026058</v>
+        <v>160.9723563333334</v>
       </c>
       <c r="H4">
-        <v>327.078174</v>
+        <v>482.917069</v>
       </c>
       <c r="I4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="J4">
-        <v>0.3049840938689738</v>
+        <v>0.3931645655589854</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>1679.840430426407</v>
+        <v>2480.213238102579</v>
       </c>
       <c r="R4">
-        <v>15118.56387383766</v>
+        <v>22321.91914292321</v>
       </c>
       <c r="S4">
-        <v>0.06497070904088074</v>
+        <v>0.1101673955263726</v>
       </c>
       <c r="T4">
-        <v>0.06497070904088076</v>
+        <v>0.1101673955263726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>269.931655</v>
       </c>
       <c r="I5">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J5">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>1898.460041838858</v>
+        <v>338.2906469325055</v>
       </c>
       <c r="R5">
-        <v>17086.14037654972</v>
+        <v>3044.615822392549</v>
       </c>
       <c r="S5">
-        <v>0.07342619737562889</v>
+        <v>0.01502636907623199</v>
       </c>
       <c r="T5">
-        <v>0.07342619737562889</v>
+        <v>0.01502636907623199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.931655</v>
       </c>
       <c r="I6">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J6">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>3222.93336351089</v>
@@ -818,10 +818,10 @@
         <v>29006.40027159801</v>
       </c>
       <c r="S6">
-        <v>0.1246524741434284</v>
+        <v>0.1431579225359983</v>
       </c>
       <c r="T6">
-        <v>0.1246524741434283</v>
+        <v>0.1431579225359983</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.931655</v>
       </c>
       <c r="I7">
-        <v>0.2516978134001918</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="J7">
-        <v>0.2516978134001917</v>
+        <v>0.2197635343237224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>1386.341686990439</v>
@@ -880,10 +880,10 @@
         <v>12477.07518291395</v>
       </c>
       <c r="S7">
-        <v>0.05361914188113451</v>
+        <v>0.06157924271149203</v>
       </c>
       <c r="T7">
-        <v>0.05361914188113451</v>
+        <v>0.06157924271149203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>475.433556</v>
       </c>
       <c r="I8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J8">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>3343.778293121482</v>
+        <v>595.8349910189734</v>
       </c>
       <c r="R8">
-        <v>30094.00463809334</v>
+        <v>5362.51491917076</v>
       </c>
       <c r="S8">
-        <v>0.1293263590068868</v>
+        <v>0.02646610707321973</v>
       </c>
       <c r="T8">
-        <v>0.1293263590068868</v>
+        <v>0.02646610707321973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>475.433556</v>
       </c>
       <c r="I9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J9">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
-        <v>5676.587541261225</v>
+        <v>5676.587541261226</v>
       </c>
       <c r="R9">
-        <v>51089.28787135102</v>
+        <v>51089.28787135103</v>
       </c>
       <c r="S9">
-        <v>0.2195517567074828</v>
+        <v>0.2521456039709838</v>
       </c>
       <c r="T9">
-        <v>0.2195517567074828</v>
+        <v>0.2521456039709838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>475.433556</v>
       </c>
       <c r="I10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="J10">
-        <v>0.4433180927308344</v>
+        <v>0.3870719001172923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>2441.778672000893</v>
@@ -1066,10 +1066,10 @@
         <v>21976.00804800804</v>
       </c>
       <c r="S10">
-        <v>0.09443997701646482</v>
+        <v>0.1084601890730887</v>
       </c>
       <c r="T10">
-        <v>0.09443997701646482</v>
+        <v>0.1084601890730887</v>
       </c>
     </row>
   </sheetData>
